--- a/Raw_water_data/12metadata.xlsx
+++ b/Raw_water_data/12metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\UMass\IGEA\igea22\Raw_water_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6347E04-DE2E-4106-A045-19CA3A44D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52EFB2-C1DB-40D5-8F1B-F0D618A14F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Reach</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Survey End Time</t>
   </si>
   <si>
-    <t>Sample Time</t>
-  </si>
-  <si>
     <t>Temperature (C)</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>TP6_P1_B</t>
+  </si>
+  <si>
+    <t>Sample_Time</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AB1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -817,37 +817,37 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -864,10 +864,10 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>44713</v>
@@ -885,31 +885,31 @@
         <v>6.3</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>44714</v>
@@ -927,10 +927,10 @@
         <v>3.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1">
         <v>419492</v>
@@ -945,56 +945,112 @@
         <v>1973</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44714</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>419492</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7624380</v>
+      </c>
+      <c r="L4" s="1">
+        <v>609</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1973</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44714</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.40347222222222223</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.42986111111111114</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>419492</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7624380</v>
+      </c>
+      <c r="L5" s="1">
+        <v>609</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1973</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>44714</v>
@@ -1012,10 +1068,10 @@
         <v>0.7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1">
         <v>424999</v>
@@ -1030,18 +1086,18 @@
         <v>948</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <v>44715</v>
@@ -1059,10 +1115,10 @@
         <v>1.6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1">
         <v>404804</v>
@@ -1079,27 +1135,51 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44715</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>404804</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7616198</v>
+      </c>
+      <c r="L8" s="1">
+        <v>833</v>
+      </c>
+      <c r="M8" s="1">
+        <v>979</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>44716</v>
@@ -1117,35 +1197,53 @@
         <v>6.7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="O10" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44716</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>44716</v>
@@ -1163,10 +1261,10 @@
         <v>10.4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1">
         <v>420492</v>
@@ -1181,15 +1279,15 @@
         <v>1014</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
         <v>44720</v>
@@ -1207,10 +1305,10 @@
         <v>3.4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1">
         <v>398143</v>
@@ -1225,15 +1323,15 @@
         <v>143</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2">
         <v>44720</v>
@@ -1245,10 +1343,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1">
         <v>398150</v>
@@ -1263,18 +1361,18 @@
         <v>165</v>
       </c>
       <c r="O13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
         <v>44721</v>
@@ -1292,10 +1390,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1">
         <v>418127</v>
@@ -1310,21 +1408,21 @@
         <v>166</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
         <v>44721</v>
@@ -1336,10 +1434,10 @@
         <v>10.3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1">
         <v>418146</v>
@@ -1354,15 +1452,15 @@
         <v>167</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="2">
         <v>44722</v>
@@ -1374,10 +1472,10 @@
         <v>8.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1">
         <v>426409</v>
@@ -1392,18 +1490,18 @@
         <v>186</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>44722</v>
@@ -1415,10 +1513,10 @@
         <v>7.8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1">
         <v>426402</v>
@@ -1433,15 +1531,15 @@
         <v>1088</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2">
         <v>44723</v>
@@ -1459,10 +1557,10 @@
         <v>2.7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1">
         <v>426710</v>
@@ -1477,15 +1575,15 @@
         <v>206</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2">
         <v>44725</v>
@@ -1503,10 +1601,10 @@
         <v>8.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1">
         <v>420598</v>
@@ -1521,15 +1619,15 @@
         <v>1119</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>44725</v>
@@ -1547,10 +1645,10 @@
         <v>16.2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1">
         <v>419866</v>
@@ -1565,15 +1663,15 @@
         <v>1161</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2">
         <v>44725</v>
@@ -1585,10 +1683,10 @@
         <v>13.6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J21" s="1">
         <v>419864</v>
@@ -1603,15 +1701,15 @@
         <v>1174</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
         <v>44726</v>
@@ -1629,10 +1727,10 @@
         <v>7.4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J22" s="1">
         <v>427391</v>
@@ -1647,15 +1745,15 @@
         <v>1186</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2">
         <v>44726</v>
@@ -1667,10 +1765,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J23" s="1">
         <v>427349</v>
@@ -1687,10 +1785,10 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>44727</v>
@@ -1702,10 +1800,10 @@
         <v>13.2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1">
         <v>425816</v>
@@ -1720,18 +1818,18 @@
         <v>1220</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2">
         <v>44728</v>
@@ -1749,10 +1847,10 @@
         <v>8.9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1">
         <v>412860</v>
@@ -1767,15 +1865,15 @@
         <v>291</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2">
         <v>44729</v>
@@ -1787,10 +1885,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1">
         <v>412916</v>
@@ -1807,10 +1905,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
         <v>44711</v>
@@ -1828,10 +1926,10 @@
         <v>8.6</v>
       </c>
       <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
         <v>67</v>
-      </c>
-      <c r="I27" t="s">
-        <v>68</v>
       </c>
       <c r="J27">
         <v>412794</v>
@@ -1846,28 +1944,65 @@
         <v>568</v>
       </c>
       <c r="N27" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" t="s">
         <v>69</v>
-      </c>
-      <c r="O27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44711</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="G28">
+        <v>8.6</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28">
+        <v>412794</v>
+      </c>
+      <c r="K28">
+        <v>7620390</v>
+      </c>
+      <c r="L28">
+        <v>786</v>
+      </c>
+      <c r="M28">
+        <v>568</v>
+      </c>
+      <c r="N28" t="s">
+        <v>68</v>
+      </c>
+      <c r="O28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2">
         <v>44712</v>
@@ -1885,10 +2020,10 @@
         <v>0.3</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J29">
         <v>427350</v>
@@ -1903,17 +2038,58 @@
         <v>857</v>
       </c>
       <c r="N29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44712</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>427350</v>
+      </c>
+      <c r="K30">
+        <v>7675548</v>
+      </c>
+      <c r="L30">
+        <v>303</v>
+      </c>
+      <c r="M30">
+        <v>857</v>
+      </c>
+      <c r="N30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>

--- a/Raw_water_data/12metadata.xlsx
+++ b/Raw_water_data/12metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\UMass\IGEA\igea22\Raw_water_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52EFB2-C1DB-40D5-8F1B-F0D618A14F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105894BC-246B-40BD-9779-F60E93B406AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -257,9 +257,6 @@
     <t>EP16</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Sample_Time</t>
+  </si>
+  <si>
+    <t>Identifier_1</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AB1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>51</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>55</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>60</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>62</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>41</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>53</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>64</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>71</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>71</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>72</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>72</v>

--- a/Raw_water_data/12metadata.xlsx
+++ b/Raw_water_data/12metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\UMass\IGEA\igea22\Raw_water_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105894BC-246B-40BD-9779-F60E93B406AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B386EE5-821C-4180-9225-C3410FEA6F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -59,12 +59,6 @@
     <t>GPS System</t>
   </si>
   <si>
-    <t>Easting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northing </t>
-  </si>
-  <si>
     <t>Elevation</t>
   </si>
   <si>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>Identifier_1</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:AB1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -802,7 +802,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -829,25 +829,25 @@
         <v>6</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -864,10 +864,10 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>44713</v>
@@ -885,31 +885,31 @@
         <v>6.3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
         <v>44714</v>
@@ -927,10 +927,10 @@
         <v>3.1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1">
         <v>419492</v>
@@ -945,18 +945,18 @@
         <v>1973</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2">
         <v>44714</v>
@@ -974,10 +974,10 @@
         <v>3.1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="1">
         <v>419492</v>
@@ -992,18 +992,18 @@
         <v>1973</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>44714</v>
@@ -1021,10 +1021,10 @@
         <v>3.1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1">
         <v>419492</v>
@@ -1039,18 +1039,18 @@
         <v>1973</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>44714</v>
@@ -1068,10 +1068,10 @@
         <v>0.7</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1">
         <v>424999</v>
@@ -1086,18 +1086,18 @@
         <v>948</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>44715</v>
@@ -1115,10 +1115,10 @@
         <v>1.6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <v>404804</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>44715</v>
@@ -1156,10 +1156,10 @@
         <v>1.6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1">
         <v>404804</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>44716</v>
@@ -1197,21 +1197,21 @@
         <v>6.7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>44716</v>
@@ -1229,21 +1229,21 @@
         <v>6.7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>44716</v>
@@ -1261,10 +1261,10 @@
         <v>10.4</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1">
         <v>420492</v>
@@ -1279,15 +1279,15 @@
         <v>1014</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>44720</v>
@@ -1305,10 +1305,10 @@
         <v>3.4</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1">
         <v>398143</v>
@@ -1323,15 +1323,15 @@
         <v>143</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2">
         <v>44720</v>
@@ -1343,10 +1343,10 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J13" s="1">
         <v>398150</v>
@@ -1361,18 +1361,18 @@
         <v>165</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2">
         <v>44721</v>
@@ -1390,10 +1390,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1">
         <v>418127</v>
@@ -1408,21 +1408,21 @@
         <v>166</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2">
         <v>44721</v>
@@ -1434,10 +1434,10 @@
         <v>10.3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1">
         <v>418146</v>
@@ -1452,15 +1452,15 @@
         <v>167</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2">
         <v>44722</v>
@@ -1472,10 +1472,10 @@
         <v>8.1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="1">
         <v>426409</v>
@@ -1490,18 +1490,18 @@
         <v>186</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2">
         <v>44722</v>
@@ -1513,10 +1513,10 @@
         <v>7.8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1">
         <v>426402</v>
@@ -1531,15 +1531,15 @@
         <v>1088</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2">
         <v>44723</v>
@@ -1557,10 +1557,10 @@
         <v>2.7</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1">
         <v>426710</v>
@@ -1575,15 +1575,15 @@
         <v>206</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
         <v>44725</v>
@@ -1601,10 +1601,10 @@
         <v>8.1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1">
         <v>420598</v>
@@ -1619,15 +1619,15 @@
         <v>1119</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>44725</v>
@@ -1645,10 +1645,10 @@
         <v>16.2</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="1">
         <v>419866</v>
@@ -1663,15 +1663,15 @@
         <v>1161</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2">
         <v>44725</v>
@@ -1683,10 +1683,10 @@
         <v>13.6</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1">
         <v>419864</v>
@@ -1701,15 +1701,15 @@
         <v>1174</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>44726</v>
@@ -1727,10 +1727,10 @@
         <v>7.4</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1">
         <v>427391</v>
@@ -1745,15 +1745,15 @@
         <v>1186</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2">
         <v>44726</v>
@@ -1765,10 +1765,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="1">
         <v>427349</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
         <v>44727</v>
@@ -1800,10 +1800,10 @@
         <v>13.2</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1">
         <v>425816</v>
@@ -1818,18 +1818,18 @@
         <v>1220</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2">
         <v>44728</v>
@@ -1847,10 +1847,10 @@
         <v>8.9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J25" s="1">
         <v>412860</v>
@@ -1865,15 +1865,15 @@
         <v>291</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2">
         <v>44729</v>
@@ -1885,10 +1885,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1">
         <v>412916</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2">
         <v>44711</v>
@@ -1926,10 +1926,10 @@
         <v>8.6</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J27">
         <v>412794</v>
@@ -1944,18 +1944,18 @@
         <v>568</v>
       </c>
       <c r="N27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2">
         <v>44711</v>
@@ -1973,10 +1973,10 @@
         <v>8.6</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J28">
         <v>412794</v>
@@ -1991,18 +1991,18 @@
         <v>568</v>
       </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2">
         <v>44712</v>
@@ -2020,10 +2020,10 @@
         <v>0.3</v>
       </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29">
         <v>427350</v>
@@ -2038,18 +2038,18 @@
         <v>857</v>
       </c>
       <c r="N29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2">
         <v>44712</v>
@@ -2067,10 +2067,10 @@
         <v>0.3</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30">
         <v>427350</v>
@@ -2085,10 +2085,10 @@
         <v>857</v>
       </c>
       <c r="N30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Raw_water_data/12metadata.xlsx
+++ b/Raw_water_data/12metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\UMass\IGEA\igea22\Raw_water_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B386EE5-821C-4180-9225-C3410FEA6F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD9BA8-6E01-4E2C-9017-802E8DAA7B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -335,10 +335,10 @@
     <t>Identifier_1</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -388,6 +388,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -780,7 +781,7 @@
   </sheetPr>
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:M2"/>
     </sheetView>
   </sheetViews>

--- a/Raw_water_data/12metadata.xlsx
+++ b/Raw_water_data/12metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\UMass\IGEA\igea22\Raw_water_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBD9BA8-6E01-4E2C-9017-802E8DAA7B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F441D1-67B5-42C0-B499-C8DB2A47AC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02675917-6FB0-1F44-8417-5533CB1D953F}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -460,8 +460,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +787,8 @@
   </sheetPr>
   <dimension ref="A1:AB1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -888,13 +894,19 @@
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="14">
+        <v>423169</v>
+      </c>
+      <c r="K2" s="14">
+        <v>7628849</v>
+      </c>
+      <c r="L2" s="14">
+        <v>508</v>
+      </c>
+      <c r="M2" s="17"/>
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1203,6 +1215,15 @@
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J9" s="15">
+        <v>420491</v>
+      </c>
+      <c r="K9" s="15">
+        <v>7622843</v>
+      </c>
+      <c r="L9" s="1">
+        <v>587</v>
+      </c>
       <c r="O9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1235,6 +1256,15 @@
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J10" s="15">
+        <v>420491</v>
+      </c>
+      <c r="K10" s="15">
+        <v>7622843</v>
+      </c>
+      <c r="L10" s="1">
+        <v>587</v>
+      </c>
       <c r="O10" s="5" t="s">
         <v>27</v>
       </c>
@@ -5015,9 +5045,6 @@
       <c r="C1004" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I2:M2"/>
-  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
